--- a/results/MIC/Linezolid.xlsx
+++ b/results/MIC/Linezolid.xlsx
@@ -7332,7 +7332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7380,23 +7380,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rplC_c.81C&gt;A</t>
+          <t>rplC_p.Cys154Arg</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.020577240338849</v>
+        <v>0.1265498907960883</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09105882352941171</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.974</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -7405,23 +7405,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rplC_c.387G&gt;A</t>
+          <t>rrl_n.2270G&gt;T</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0158373284570888</v>
+        <v>0.053728550595891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1401481481481481</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.948</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -7430,23 +7430,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rplC_c.216C&gt;T</t>
+          <t>rrl_n.1052G&gt;T</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0101924900957892</v>
+        <v>0.0453129047436229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.169</v>
+        <v>0.003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3363128491620111</v>
+        <v>0.043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708</v>
+        <v>0.997</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -7455,23 +7455,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rplC_c.357G&gt;A</t>
+          <t>rrl_n.2814G&gt;T</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0040035729637411</v>
+        <v>0.0366932498818948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3363128491620111</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.496</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -7480,23 +7480,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rplC_c.567C&gt;T</t>
+          <t>rrl_n.637C&gt;G</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0037781387469949</v>
+        <v>0.0276648301432163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.311</v>
+        <v>0.004</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4686812227074236</v>
+        <v>0.0491428571428571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.365</v>
+        <v>0.993</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -7505,23 +7505,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rplC_c.402T&gt;G</t>
+          <t>rplC_p.Tyr80Cys</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0029809684882961</v>
+        <v>0.027170885419512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.346</v>
+        <v>0.002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4761159420289855</v>
+        <v>0.0327619047619047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.265</v>
+        <v>0.987</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -7530,198 +7530,198 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rplC_c.513C&gt;T</t>
+          <t>rrl_n.2779A&gt;G</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0026448595344314</v>
+        <v>0.0267170919652153</v>
       </c>
       <c r="D8" t="n">
-        <v>0.508</v>
+        <v>0.005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5495345911949686</v>
+        <v>0.0593103448275862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.148</v>
+        <v>0.988</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8629152542372881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rplC_c.627C&gt;T</t>
+          <t>rrl_n.241C&gt;T</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0022122095257631</v>
+        <v>0.0258189439943386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.591</v>
+        <v>0.014</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6142114803625377</v>
+        <v>0.1234871794871795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.046</v>
+        <v>0.976</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4654117647058823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rplC_c.555C&gt;T</t>
+          <t>rrl_n.2299G&gt;T</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0011599059080675</v>
+        <v>0.0244820550398873</v>
       </c>
       <c r="D10" t="n">
-        <v>0.471</v>
+        <v>0.003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.54008</v>
+        <v>0.043</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09</v>
+        <v>0.987</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7036363636363636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rplC_c.315C&gt;T</t>
+          <t>rrl_n.344C&gt;T</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000350967508811</v>
+        <v>0.0241145791270937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.518</v>
+        <v>0.021</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5568500000000001</v>
+        <v>0.1401481481481481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.082</v>
+        <v>0.959</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6961904761904762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rplC_c.456C&gt;G</t>
+          <t>rrl_n.807C&gt;T</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001888304700717</v>
+        <v>0.0217182979062061</v>
       </c>
       <c r="D12" t="n">
-        <v>0.487</v>
+        <v>0.011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5447570977917982</v>
+        <v>0.1022702702702702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001</v>
+        <v>0.973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rplC_c.48A&gt;T</t>
+          <t>rplC_c.81C&gt;A</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000177710666449</v>
+        <v>0.020577240338849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.609</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6253611940298508</v>
+        <v>0.09105882352941171</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.974</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rplC_c.258G&gt;A</t>
+          <t>rrl_n.1331C&gt;T</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0021147956304404</v>
+        <v>0.0203706050064311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39</v>
+        <v>0.016</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4791428571428571</v>
+        <v>0.131047619047619</v>
       </c>
       <c r="F14" t="n">
-        <v>0.192</v>
+        <v>0.963</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9932394366197184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rplC_c.543G&gt;A</t>
+          <t>rrl_n.2766T&gt;C</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0059349222214841</v>
+        <v>0.0202698295127495</v>
       </c>
       <c r="D15" t="n">
-        <v>0.231</v>
+        <v>0.017</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3953432835820895</v>
+        <v>0.136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.602</v>
+        <v>0.96</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -7730,23 +7730,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rplC_c.546G&gt;A</t>
+          <t>rplC_p.Ala31Thr</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0096568619409637</v>
+        <v>0.0192151843488939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.146</v>
+        <v>0.018</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3363128491620111</v>
+        <v>0.139063829787234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.71</v>
+        <v>0.952</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -7755,23 +7755,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rplC_c.213C&gt;T</t>
+          <t>rrl_n.2064C&gt;T</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0113369678260575</v>
+        <v>0.0186962986302036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111</v>
+        <v>0.028</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3363128491620111</v>
+        <v>0.1579016393442623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.798</v>
+        <v>0.948</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -7780,23 +7780,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rplC_c.201A&gt;G</t>
+          <t>rrl_n.1785C&gt;G</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0115330285103176</v>
+        <v>0.0167048245293571</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109</v>
+        <v>0.026</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3363128491620111</v>
+        <v>0.151593220338983</v>
       </c>
       <c r="F18" t="n">
-        <v>0.782</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -7805,23 +7805,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rplC_c.279C&gt;T</t>
+          <t>rplC_c.-466G&gt;T</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.012949565919062</v>
+        <v>0.0166402689899946</v>
       </c>
       <c r="D19" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2671058823529412</v>
+        <v>0.2652530120481927</v>
       </c>
       <c r="F19" t="n">
-        <v>0.888</v>
+        <v>0.866</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -7830,23 +7830,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rplC_c.81C&gt;T</t>
+          <t>rrl_n.3099G&gt;C</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0170354296529081</v>
+        <v>0.0158381095776585</v>
       </c>
       <c r="D20" t="n">
-        <v>0.032</v>
+        <v>0.053</v>
       </c>
       <c r="E20" t="n">
-        <v>0.172</v>
+        <v>0.2279</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.919</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -7855,25 +7855,6875 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>rplC_c.387G&gt;A</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0158373284570888</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1401481481481481</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>rrl_n.1948_1950dupATA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0157774297079538</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.151593220338983</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rrl_n.2123A&gt;G</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0145769981005087</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2014857142857143</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>rrl_n.2295A&gt;C</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0128874019666367</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>rrl_n.1932G&gt;A</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0128050759390186</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1401481481481481</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>rrl_n.3G&gt;A</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0124782178591762</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2661904761904762</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>rrl_n.1924A&gt;G</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0123990154258701</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2073424657534246</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rrl_n.1847C&gt;A</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.012176662499112</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3140869565217392</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rrl_n.3138A&gt;G</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0116899767873672</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2475121951219512</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>rrl_n.448T&gt;C</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0115782341647562</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>rplC_c.-39G&gt;C</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0114821569254951</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3339805825242719</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>rrl_n.2096dupC</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0114503529347863</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3339805825242719</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>rrl_n.2468G&gt;A</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0113394702258538</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rrl_n.157A&gt;C</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.011291726880551</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rrl_n.2350T&gt;G</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0103847589242676</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3339805825242719</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>rplC_p.His183Tyr</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0101969422402952</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>rplC_c.216C&gt;T</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0101924900957892</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>rrl_n.914G&gt;A</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0100307066027435</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>rrl_n.535G&gt;T</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.009888151353263</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>rrl_n.60G&gt;A</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.009509682024941899</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>rrl_n.1074G&gt;A</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0094808539310574</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>rrl_n.1078G&gt;T</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0091515478581845</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>rrl_n.1859T&gt;C</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0090540954104943</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rplC_p.Arg214Gln</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.008947649113353899</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rrl_n.2809C&gt;T</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0089463331034992</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>rplC_p.Gly12Ser</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0088624727299122</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rrl_n.2399G&gt;A</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.008840464737207</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>rplC_p.Asn179Lys</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0085745776745259</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>rrl_n.1206delA</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.008568429948271099</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>rrl_n.141A&gt;G</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0078531084153913</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>rrl_n.17dupG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0077227520741845</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>rrl_n.1861A&gt;G</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0075386026868887</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3549206349206349</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>rrl_n.627G&gt;T</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0074765543621685</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>rrl_n.1851A&gt;G</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0074131989881378</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>rrl_n.866C&gt;T</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0074056533939215</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>rplC_c.-396G&gt;A</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0067411042996007</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3365621621621621</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>rrl_n.1563G&gt;A</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0062783875335717</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.139063829787234</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>rrl_n.1948A&gt;G</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0062783875335716</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.139063829787234</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>rrl_n.2586T&gt;C</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0062196630757623</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>rplC_p.Gly168Arg</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0060517467152221</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3924020100502512</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>rrl_n.2317A&gt;G</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.006043699478302</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3638115183246073</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>rrl_n.2921C&gt;A</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0060329852900469</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3686974358974358</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rrl_n.1438A&gt;G</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.006005096433849</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>rrl_n.2331A&gt;G</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0059920108360148</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>rrl_n.1968delG</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0059735170980508</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>rrl_n.809G&gt;A</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0059043690277531</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>rplC_c.-420G&gt;A</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.005757408240164</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3364808743169399</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>rplC_p.Gly120Ser</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0057348732295953</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4445296803652968</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>rrl_n.2434T&gt;C</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0055398692794152</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rrl_n.2886G&gt;A</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0053790866114088</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rrl_n.-43G&gt;C</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0051426712048389</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4445296803652968</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rrl_n.328A&gt;G</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0048310377263009</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.4686812227074236</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rrl_n.1697A&gt;T</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0047677145525298</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>rrl_n.179A&gt;G</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0047538226760131</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>rrl_n.2040C&gt;T</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0047464077460656</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rrl_n.2529T&gt;C</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0045003230632043</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>rrl_n.2023A&gt;G</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0044956872246379</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rrl_n.2296A&gt;C</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0044703309209694</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>rrl_n.1821dupG</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0044346360403466</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.4438709677419355</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>rrl_n.2691A&gt;T</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0044047066439721</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rrl_n.3064G&gt;A</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.004400491235699</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>rrl_n.2120A&gt;G</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0044001926820117</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4438709677419355</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rrl_n.-27T&gt;G</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0043293217007685</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>rplC_c.-408A&gt;G</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0043103862003318</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>rrl_n.1440G&gt;A</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0043090507553749</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.3403208556149732</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>rrl_n.2790T&gt;C</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0042999443857025</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.3364808743169399</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>rplC_c.-481G&gt;A</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0042929902461768</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>rrl_n.733C&gt;T</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0042766491253645</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>rrl_n.19G&gt;A</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0042723478931127</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4358446601941748</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>rrl_n.1794T&gt;C</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.0042685243847513</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3364808743169399</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>rrl_n.533C&gt;T</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0042353121790036</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.3458297872340425</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>rrl_n.1051_1052insT</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0042321348646892</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rrl_n.637C&gt;T</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0042316723403763</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.3366021505376344</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>rrl_n.1564C&gt;T</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.0041190107170125</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rplC_p.Ile105Val</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.004112795156107</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rplC_c.-434C&gt;G</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0040999547592506</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4739227467811159</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>rplC_c.357G&gt;A</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0040035729637411</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>rrl_n.2297A&gt;G</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0039804293177828</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>rrl_n.2444C&gt;T</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.003910624437997</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>rrl_n.271T&gt;C</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0038875491726385</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>rplC_c.-342G&gt;A</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.0038641738189717</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rrl_n.266C&gt;A</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0038477639231316</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>rplC_p.Thr41Met</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0038464741096277</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>rplC_p.Gly215Ser</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0038397292707583</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>rplC_c.567C&gt;T</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.0037781387469949</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4686812227074236</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>rrl_n.1698C&gt;T</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0037773566912441</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>rrl_n.798G&gt;A</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0037499732269449</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>rrl_n.1738T&gt;C</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0036700628303592</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rrl_n.2029C&gt;T</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0035974375230632</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>rrl_n.1253C&gt;T</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0034314603969422</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.4498461538461538</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>rrl_n.2467T&gt;C</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0034177977986751</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.4425164319248826</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>rrl_n.471G&gt;T</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0034036333774506</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>rplC_c.-372G&gt;C</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0033924371047352</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.3953432835820895</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>rrl_n.1602T&gt;G</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0031594724634023</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4739227467811159</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>rrl_n.2565A&gt;C</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0031079681105096</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>rplC_p.Gly136Ser</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.00308995264371</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>rplC_c.402T&gt;G</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0029809684882961</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>rrl_n.-35G&gt;A</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0029782701845586</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>rrl_n.2570C&gt;T</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0029584907271049</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4904083044982698</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>rrl_n.868A&gt;G</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0029532416266462</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4818439716312057</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>rrl_n.2633C&gt;A</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0029153153776111</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4835244755244755</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>rrl_n.-25C&gt;T</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0028953932952171</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4842369337979094</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>rrl_n.903A&gt;G</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0028895050785036</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4988591065292096</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>rrl_n.1326dupA</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0028335253283058</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8772</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>rrl_n.2180C&gt;T</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0028110040691544</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5619378881987578</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.78432</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>rrl_n.450T&gt;C</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0027549957652455</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>rrl_n.2503T&gt;G</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0027211587351365</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5425049180327869</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.9210322580645164</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>rrl_n.2472G&gt;A</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0026799564117589</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.529945945945946</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.896655737704918</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>rplC_c.513C&gt;T</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0026448595344314</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5495345911949686</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8629152542372881</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>rrl_n.1408G&gt;A</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0026436908192911</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.7983396226415095</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rplC_p.Arg44Leu</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0026428127402354</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.7983396226415095</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>rrl_n.3053delC</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0026241691317312</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5410596026490065</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.8268070175438598</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>rrl_n.2461G&gt;A</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0025783006299237</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5670214067278287</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.7983396226415095</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>rrl_n.1778G&gt;A</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0025701406308019</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5670214067278287</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.7403478260869566</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>rrl_n.3006C&gt;T</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0025580179205149</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5670214067278287</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7036363636363636</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>rrl_n.896T&gt;C</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0025505677584904</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5670214067278287</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.6961904761904762</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>rplC_p.Val185Ile</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.002505135359893</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4835244755244755</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>rrl_n.2132C&gt;G</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0024898359896708</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5715853658536586</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.6322162162162163</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>rrl_n.2479A&gt;G</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0024334342383412</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5326822742474917</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>rplC_c.-482G&gt;A</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0023843457263231</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6241437125748504</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.2846896551724138</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>rrl_n.2225C&gt;T</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0023543211295513</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5583302180685359</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.78432</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>rrl_n.-39G&gt;A</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0022739425129496</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.5886686930091185</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.4816</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>rrl_n.2030C&gt;T</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.002229970307678</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5326822742474917</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.950095238095238</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>rplC_c.-383C&gt;G</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0022262172093814</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.503041095890411</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>rplC_c.627C&gt;T</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0022122095257631</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.6142114803625377</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4654117647058823</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>rrl_n.1613G&gt;C</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0020677668818999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.1058461538461538</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>rrl_n.2110G&gt;T</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0019150316636787</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.172</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>rrl_n.100T&gt;C</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0018299740125307</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6142114803625377</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.3961212121212121</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>rrl_n.2341C&gt;T</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0017459489100476</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.5130648464163823</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>rrl_n.643C&gt;A</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0016660323580465</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.6208528528528527</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.1146666666666666</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>rrl_n.1301A&gt;G</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0016605782839879</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>rrl_n.723G&gt;A</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0015226109070308</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4946482758620689</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.8268070175438598</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>rplC_c.-464delG</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0014846741598967</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.4904083044982698</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>rrl_n.612C&gt;T</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0013811586982068</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4835244755244755</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.9937777777777776</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>rrl_n.2107A&gt;G</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0013780850335798</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8268070175438598</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>rrl_n.700G&gt;A</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0013780850335798</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.8268070175438598</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>rrl_n.1960C&gt;T</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.001289217574327</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.5568500000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.2293333333333333</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>rplC_c.555C&gt;T</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0011599059080675</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.54008</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.7036363636363636</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>rplC_c.-465C&gt;T</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0010959950993366</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>rplC_c.-460C&gt;G</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0010585184698032</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.5142508474576272</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.6517894736842105</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>rrl_n.781_782insT</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.0009158478295479</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5670214067278287</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5733333333333333</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>rrl_n.2916A&gt;G</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0008586366509873</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>rplC_c.-430G&gt;A</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0008003285601978</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>rrl_n.46C&gt;G</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0007897916375171</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6208528528528527</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>rrl_n.2024C&gt;T</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0007280246923942</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.1146666666666666</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>rrl_n.2813C&gt;T</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0007277037661379</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>rplC_c.-338G&gt;A</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0004722720843915</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5425049180327869</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.2846896551724138</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>rrl_n.2296A&gt;T</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0003910401852133</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.1794782608695652</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>rplC_c.315C&gt;T</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.000350967508811</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.5568500000000001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.6961904761904762</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>rrl_n.2296A&gt;G</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0002760261586525</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.1794782608695652</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>rrl_n.960G&gt;A</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0002111147743918</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0344</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>rplC_c.456C&gt;G</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0001888304700717</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0344</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>rplC_c.48A&gt;T</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.000177710666449</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.6253611940298508</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>rrl_n.1658A&gt;G</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0001265701317736</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.6338425655976676</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>rrl_n.1572dupA</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-9.247936919368362e-06</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.5415445544554455</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>rrl_n.1456C&gt;T</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.0003220049332617</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>rrl_n.2509G&gt;C</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.0004473017116799</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>rrl_n.2862C&gt;T</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.0006538616577617</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.5405714285714286</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.3554666666666666</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>rrl_n.222dupG</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.0006589944682482</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.5441045751633986</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.3961212121212121</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>rrl_n.2974G&gt;A</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.0006675100114175</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.3772903225806452</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>rrl_n.686C&gt;T</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.0009669046032357999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.2846896551724138</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>rrl_n.575C&gt;T</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.0009818622604819999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.4776402877697842</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.1267368421052631</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>rrl_n.211C&gt;T</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.0010000387120358</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.5316363636363637</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.6961904761904762</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>rrl_n.475G&gt;T</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-0.0011697125558654</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>rrl_n.650G&gt;A</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.0011748469380214</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0344</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>rplC_p.Arg38Cys</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-0.001298968538229</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.5447570977917982</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.2513846153846154</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>rrl_n.2781G&gt;A</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-0.0013670767479578</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.7403478260869566</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>rrl_n.1075A&gt;G</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.0014115984745297</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.5142508474576272</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.78432</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>rrl_n.2368G&gt;A</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-0.0016913018887237</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>rplC_c.258G&gt;A</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.0021147956304404</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.4791428571428571</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>rrl_n.-49G&gt;C</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.0022950937355472</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.4835244755244755</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>rrl_n.1648A&gt;C</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.0023265849506621</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.6961904761904762</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>rrl_n.1608delG</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.0023350145089428</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.7831489361702128</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>rrl_n.2010G&gt;A</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.0023813595363218</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.4397358490566038</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>rrl_n.2022C&gt;T</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.0023813595363218</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.4397358490566038</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>rrl_n.1264C&gt;T</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.0024687334767667</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>rrl_n.1351C&gt;A</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-0.0027346670312615</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>rrl_n.718G&gt;A</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.0028221273417964</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.9932394366197184</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>rrl_n.447G&gt;A</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-0.0029001286784454</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>rrl_n.1719A&gt;C</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-0.0029299640843779</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>rrl_n.806G&gt;A</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.003325851507187</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>rrl_n.1262_1263insT</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.0033586368664649</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.4397358490566038</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>rplC_p.Thr115Ala</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-0.0033920161844485</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>rrl_n.3005_3006dupCC</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.0038283280488901</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>rplC_c.-485G&gt;C</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-0.0040038795365718</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>rrl_n.552G&gt;A</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.0040141744455443</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>rrl_n.840G&gt;T</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-0.0041439119487745</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>rplC_c.-468G&gt;A</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.0041893495512021</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>rplC_p.Val97Ile</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.0042334157184919</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.4735584415584415</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>rrl_n.1093C&gt;G</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.0042969854758514</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>rplC_c.-503A&gt;G</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.0044231497551077</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>rrl_n.842G&gt;A</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-0.0044678645737701</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.4783942652329749</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>rrl_n.2421C&gt;A</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.0045741099450479</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>rrl_n.3053C&gt;T</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-0.0046126010777068</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>rrl_n.284T&gt;C</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-0.0046136625064658</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>rrl_n.-41T&gt;C</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-0.0047264730936186</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.4811103202846975</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>rplC_c.-13_-12insT</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.0047548866887812</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>rrl_n.982G&gt;A</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-0.004869821278965</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4735584415584415</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>rrl_n.1819G&gt;A</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-0.0050073011107562</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4776402877697842</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>rrl_n.1442G&gt;A</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-0.0050516629681234</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>rplC_p.Ser89Ala</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-0.0050697085738694</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.4397358490566038</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>rrl_n.2537A&gt;G</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-0.0050877682061373</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4686812227074236</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>rrl_n.276C&gt;T</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-0.0050947212439274</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.4617657657657657</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>rrl_n.2209T&gt;G</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.0054447389499936</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>rrl_n.544T&gt;C</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.0055144175852122</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.4686812227074236</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>rrl_n.3072A&gt;G</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-0.0055325585564451</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>rrl_n.-4G&gt;C</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-0.0056318089074831</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.4397358490566038</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>rrl_n.1660G&gt;A</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-0.0056658057290763</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.4761159420289855</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>rrl_n.2220C&gt;A</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-0.0057208178931375</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.466311111111111</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>rplC_p.Pro25Ser</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-0.0057256127883847</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.4436635514018692</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>rrl_n.1890dupA</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-0.0057716057461297</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4438709677419355</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>rrl_n.2919C&gt;T</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.0057800112798297</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.466311111111111</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>rrl_n.716G&gt;T</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.00580604029086</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.4498461538461538</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>rrl_n.326A&gt;G</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.0058742595834401</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.4291485148514851</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>rplC_c.543G&gt;A</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.0059349222214841</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.3953432835820895</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>rrl_n.417C&gt;T</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.0059573209491194</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>rrl_n.2465A&gt;T</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.0061340332823439</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.3638115183246073</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>rrl_n.2112dupT</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-0.0064231659661233</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>rrl_n.1599C&gt;T</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-0.0064380220606172</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>rrl_n.1264C&gt;A</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-0.0064396864301137</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>rrl_n.1627C&gt;G</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-0.0064493332552019</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.3364808743169399</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>rrl_n.2061T&gt;C</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-0.0064624243995344</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>rrl_n.1433A&gt;C</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-0.0065963378661577</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.3839595959595959</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>rrl_n.1723C&gt;T</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.0068651420194313</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>rrl_n.350A&gt;C</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-0.0073113560373189</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>rrl_n.303T&gt;C</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-0.007887778922969199</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>rrl_n.236T&gt;C</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-0.0079117292661171</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>rrl_n.1743C&gt;T</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-0.0080904628681351</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.3365621621621621</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>rplC_p.Thr93Ala</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-0.0083620264560079</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>rrl_n.3007T&gt;G</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.0093102369213015</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>rrl_n.1882A&gt;G</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-0.0093102369213016</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>rrl_n.1624dupC</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-0.009525369938670199</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>rplC_c.546G&gt;A</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-0.0096568619409637</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>rrl_n.2882A&gt;G</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-0.0098402705295936</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.3339805825242719</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>rplC_p.Thr102Ser</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-0.0103199686962588</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>rplC_c.-330_-329insGAGAAGCGT</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.0105450812034231</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>rrl_n.2281C&gt;T</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.0108111898567523</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.3339805825242719</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>rplC_p.Pro33Leu</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-0.0111801925905529</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.3257021276595744</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>rplC_c.213C&gt;T</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.0113369678260575</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>rplC_c.-444A&gt;G</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-0.0113577114856941</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.1401481481481481</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>rplC_c.-389G&gt;T</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-0.0113577114856941</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.1401481481481481</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>rplC_c.201A&gt;G</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.0115330285103176</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>rrl_n.2964C&gt;A</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>-0.0117189321351907</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.3140869565217392</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>rrl_n.1822C&gt;T</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.0117201327799833</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.3363128491620111</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>rrl_n.2336C&gt;T</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-0.011902590892125</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.3339805825242719</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>rrl_n.1014C&gt;G</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.0120517122905994</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.3181075268817204</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>rplC_p.Ala137Val</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-0.0122102846532192</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.2892727272727272</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>rrl_n.-21A&gt;G</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-0.0122455780950063</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.3340769230769231</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>rrl_n.782dupA</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-0.012781915667177</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.2767816091954023</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>rplC_c.279C&gt;T</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-0.012949565919062</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.2671058823529412</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>rrl_n.757C&gt;G</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-0.0141128547424103</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.3092134831460674</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>rrl_n.651G&gt;T</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-0.0142710204593096</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.3262680412371134</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>rrl_n.1107dupG</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>-0.0149151783148829</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.2034929577464788</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>rrl_n.1940G&gt;A</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-0.0149353356608638</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.2378271604938271</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>rrl_n.435G&gt;T</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-0.0152300348067894</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.2144415584415584</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>rrl_n.1942A&gt;G</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-0.0152366869557781</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.2161025641025641</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>rrl_n.2341C&gt;A</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-0.0152667432966031</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>rrl_n.2943A&gt;T</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-0.0152804706632462</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.2144415584415584</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>rplC_c.-452C&gt;A</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-0.0160774742825308</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.1401481481481481</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>rplC_p.Ser138Arg</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-0.0164037123317958</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.1508771929824561</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>rplC_p.Asp18Asn</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-0.0165980872901599</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.2138378378378378</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>rplC_c.81C&gt;T</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-0.0170354296529081</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>rrl_n.1004G&gt;C</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-0.0170752144890563</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.2073424657534246</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>rrl_n.1093C&gt;T</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-0.0201635305990296</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>rrl_n.1875A&gt;G</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-0.021106872980619</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.1022702702702702</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>rrl_n.2454G&gt;A</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.021677680287138</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.1401481481481481</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>rrl_n.1890A&gt;G</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>-0.0232075631677667</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.131047619047619</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>rrl_n.1457C&gt;T</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-0.0236165754583404</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.139063829787234</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>rplC_p.Asp18del</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-0.0239276769924637</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.09105882352941171</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>rrl_n.287G&gt;C</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>-0.0244183771933822</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.07525</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>rrl_n.3017T&gt;C</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-0.0257895264969674</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.07525</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
           <t>rplC_c.42G&gt;C</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
         <v>-0.0357385520350647</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D292" t="n">
         <v>0.01</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E292" t="n">
         <v>0.0982857142857142</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F292" t="n">
         <v>0.989</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>rplC_p.Gly131Ser</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>-0.0527287687639797</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>rrl_n.2294G&gt;A</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>-0.0532695553017047</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>rrl_n.1406A&gt;C</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-0.0582404960324964</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="n">
         <v>1</v>
       </c>
     </row>
